--- a/results_current/patients_offline_results.xlsx
+++ b/results_current/patients_offline_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\neurorobotics_prj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\neurorobotics_prj\results_current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBCCA2-CC36-4674-B03E-EA7C2F3AD422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EFD8F-BDA9-45AE-8F69-373D9370AFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutrale" xfId="1" builtinId="28"/>
@@ -459,7 +461,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,31 +529,37 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>75.850104094378906</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>66.916458506799884</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>84.786229872293177</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>91.111111111111114</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>94.252873563218387</v>
       </c>
-      <c r="J2">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>91.111111111111114</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>94.252873563218387</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>85.555555555555557</v>
       </c>
-      <c r="P2">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
         <v>85.555555555555557</v>
       </c>
     </row>
@@ -559,31 +567,37 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>85.121443442054129</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>83.060261038600387</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>87.180910099889019</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="N3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>95.555555555555557</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
         <v>95.555555555555557</v>
       </c>
     </row>
@@ -591,31 +605,37 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>83.892896781354054</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>80.360610263522886</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>87.427144046627816</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="N4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>96.666666666666671</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
         <v>96.666666666666671</v>
       </c>
     </row>
@@ -623,31 +643,37 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>90.697190426638912</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>92.301290054099042</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>89.092422980849292</v>
       </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="N5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>95</v>
       </c>
-      <c r="P5">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
         <v>96.610169491525426</v>
       </c>
     </row>
@@ -655,31 +681,37 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>85.190839694656489</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>85.290036081043581</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>85.09161576901721</v>
       </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="N6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>91.111111111111114</v>
       </c>
-      <c r="P6">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
         <v>92.134831460674164</v>
       </c>
     </row>
@@ -687,31 +719,37 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>77.078994863251424</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>68.536517633990556</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>85.619100499722379</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>96.666666666666671</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>97.752808988764045</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>96.666666666666671</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>96.666666666666671</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>92.222222222222229</v>
       </c>
-      <c r="P7">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
         <v>92.222222222222229</v>
       </c>
     </row>
@@ -719,31 +757,37 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>73.516552154903181</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>72.791666666666671</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>74.240532667498954</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>91.666666666666657</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>93.220338983050837</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>95</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>95</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>86.666666666666671</v>
       </c>
-      <c r="P8">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
         <v>89.65517241379311</v>
       </c>
     </row>
@@ -751,31 +795,37 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>80.61918645009024</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>77.096057745696839</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>84.143293529575118</v>
       </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="N9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>95.555555555555557</v>
       </c>
-      <c r="P9">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
         <v>98.850574712643677</v>
       </c>
     </row>
@@ -783,37 +833,37 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>81.495900988415912</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>78.294112248802477</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>84.697656183184122</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>97.430555555555543</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>98.15325269187916</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>97.847222222222214</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>98.239942528735625</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>92.291666666666657</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
         <v>93.406343509829554</v>
       </c>
     </row>
@@ -824,5 +874,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>